--- a/Code/Results/Cases/Case_2_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01607314061949</v>
+        <v>1.046015360399743</v>
       </c>
       <c r="D2">
-        <v>1.028761905340493</v>
+        <v>1.045517149817485</v>
       </c>
       <c r="E2">
-        <v>1.012835084276016</v>
+        <v>1.057916378128792</v>
       </c>
       <c r="F2">
-        <v>1.018961211736078</v>
+        <v>1.065189534509206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047510445789202</v>
+        <v>1.041297323242586</v>
       </c>
       <c r="J2">
-        <v>1.037783509291178</v>
+        <v>1.051072011530409</v>
       </c>
       <c r="K2">
-        <v>1.039834571880891</v>
+        <v>1.048285168081746</v>
       </c>
       <c r="L2">
-        <v>1.024118455769772</v>
+        <v>1.060650038855828</v>
       </c>
       <c r="M2">
-        <v>1.030162558829452</v>
+        <v>1.067903444620381</v>
       </c>
       <c r="N2">
-        <v>1.039257280909824</v>
+        <v>1.052564654346427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021686168772278</v>
+        <v>1.047145190270167</v>
       </c>
       <c r="D3">
-        <v>1.032841907993912</v>
+        <v>1.04635108905697</v>
       </c>
       <c r="E3">
-        <v>1.019026665282561</v>
+        <v>1.059277940353205</v>
       </c>
       <c r="F3">
-        <v>1.0255951462936</v>
+        <v>1.066647310122513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049328682256518</v>
+        <v>1.041598539744753</v>
       </c>
       <c r="J3">
-        <v>1.041602611696688</v>
+        <v>1.051848848591435</v>
       </c>
       <c r="K3">
-        <v>1.043071131858557</v>
+        <v>1.048930505235321</v>
       </c>
       <c r="L3">
-        <v>1.029421749596632</v>
+        <v>1.061824142150128</v>
       </c>
       <c r="M3">
-        <v>1.035910680555375</v>
+        <v>1.069174965131756</v>
       </c>
       <c r="N3">
-        <v>1.043081806878787</v>
+        <v>1.053342594605184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025226069602384</v>
+        <v>1.047875695047077</v>
       </c>
       <c r="D4">
-        <v>1.035417696250975</v>
+        <v>1.04689020647245</v>
       </c>
       <c r="E4">
-        <v>1.02293902532084</v>
+        <v>1.060159221471009</v>
       </c>
       <c r="F4">
-        <v>1.029786569074109</v>
+        <v>1.067590910002192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050465127695571</v>
+        <v>1.04179200307733</v>
       </c>
       <c r="J4">
-        <v>1.044005784577886</v>
+        <v>1.052350391061534</v>
       </c>
       <c r="K4">
-        <v>1.04510665699217</v>
+        <v>1.049346939363912</v>
       </c>
       <c r="L4">
-        <v>1.03276826040877</v>
+        <v>1.062583587038346</v>
       </c>
       <c r="M4">
-        <v>1.039538311718607</v>
+        <v>1.069997524829581</v>
       </c>
       <c r="N4">
-        <v>1.045488392541124</v>
+        <v>1.053844849323119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026693167551294</v>
+        <v>1.048182664422545</v>
       </c>
       <c r="D5">
-        <v>1.036485802828863</v>
+        <v>1.047116733025788</v>
       </c>
       <c r="E5">
-        <v>1.024562379889454</v>
+        <v>1.060529777421038</v>
       </c>
       <c r="F5">
-        <v>1.03152561297775</v>
+        <v>1.067987679900764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050933626083779</v>
+        <v>1.041872989818786</v>
       </c>
       <c r="J5">
-        <v>1.045000445316925</v>
+        <v>1.052560971752177</v>
       </c>
       <c r="K5">
-        <v>1.045948874357068</v>
+        <v>1.049521735587783</v>
       </c>
       <c r="L5">
-        <v>1.0341557262514</v>
+        <v>1.062902793931102</v>
       </c>
       <c r="M5">
-        <v>1.041042430307892</v>
+        <v>1.070343284330038</v>
       </c>
       <c r="N5">
-        <v>1.046484465812502</v>
+        <v>1.054055729062496</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026938290935217</v>
+        <v>1.048234198076829</v>
       </c>
       <c r="D6">
-        <v>1.036664294842454</v>
+        <v>1.047154760904196</v>
       </c>
       <c r="E6">
-        <v>1.024833723974373</v>
+        <v>1.060591999324335</v>
       </c>
       <c r="F6">
-        <v>1.031816288744509</v>
+        <v>1.068054304136062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051011755032775</v>
+        <v>1.041886567616127</v>
       </c>
       <c r="J6">
-        <v>1.045166554772849</v>
+        <v>1.052596313506763</v>
       </c>
       <c r="K6">
-        <v>1.046089508912353</v>
+        <v>1.049551068674385</v>
       </c>
       <c r="L6">
-        <v>1.034387576521181</v>
+        <v>1.062956386520299</v>
       </c>
       <c r="M6">
-        <v>1.041293779491737</v>
+        <v>1.07040133634556</v>
       </c>
       <c r="N6">
-        <v>1.046650811162906</v>
+        <v>1.054091121006427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025245754611977</v>
+        <v>1.047879797314457</v>
       </c>
       <c r="D7">
-        <v>1.035432025520838</v>
+        <v>1.046893233795888</v>
       </c>
       <c r="E7">
-        <v>1.022960799352619</v>
+        <v>1.060164172596788</v>
       </c>
       <c r="F7">
-        <v>1.029809895240364</v>
+        <v>1.067596211340247</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050471423770372</v>
+        <v>1.041793086582176</v>
       </c>
       <c r="J7">
-        <v>1.044019135874242</v>
+        <v>1.052353205901795</v>
       </c>
       <c r="K7">
-        <v>1.045117963159057</v>
+        <v>1.049349276070142</v>
       </c>
       <c r="L7">
-        <v>1.032786874830828</v>
+        <v>1.062587852543267</v>
       </c>
       <c r="M7">
-        <v>1.039558490775327</v>
+        <v>1.070002145056352</v>
       </c>
       <c r="N7">
-        <v>1.045501762797852</v>
+        <v>1.053847668160776</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017989767473274</v>
+        <v>1.046397310942408</v>
       </c>
       <c r="D8">
-        <v>1.030154453937623</v>
+        <v>1.045799086756008</v>
       </c>
       <c r="E8">
-        <v>1.01494771175448</v>
+        <v>1.058376472744236</v>
       </c>
       <c r="F8">
-        <v>1.02122487403047</v>
+        <v>1.065682132138577</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048133431437483</v>
+        <v>1.041399419992913</v>
       </c>
       <c r="J8">
-        <v>1.039088690489235</v>
+        <v>1.051334780450333</v>
       </c>
       <c r="K8">
-        <v>1.040940886813702</v>
+        <v>1.048503499740848</v>
       </c>
       <c r="L8">
-        <v>1.02592894308354</v>
+        <v>1.061046891977262</v>
       </c>
       <c r="M8">
-        <v>1.032124815757473</v>
+        <v>1.068333204001855</v>
       </c>
       <c r="N8">
-        <v>1.040564315614869</v>
+        <v>1.052827796428358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00445101876923</v>
+        <v>1.043780528876924</v>
       </c>
       <c r="D9">
-        <v>1.020332255031357</v>
+        <v>1.043867226315437</v>
       </c>
       <c r="E9">
-        <v>1.000053807506811</v>
+        <v>1.055228156001323</v>
       </c>
       <c r="F9">
-        <v>1.005263943826686</v>
+        <v>1.062311585217766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043690564078829</v>
+        <v>1.040694651362952</v>
       </c>
       <c r="J9">
-        <v>1.029847573270131</v>
+        <v>1.049531533768213</v>
       </c>
       <c r="K9">
-        <v>1.033103849073814</v>
+        <v>1.047004351974475</v>
       </c>
       <c r="L9">
-        <v>1.013146011781818</v>
+        <v>1.058329259004191</v>
       </c>
       <c r="M9">
-        <v>1.01827219065579</v>
+        <v>1.065390654363388</v>
       </c>
       <c r="N9">
-        <v>1.031310074949342</v>
+        <v>1.051021988929114</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9948465568946206</v>
+        <v>1.042032898884194</v>
       </c>
       <c r="D10">
-        <v>1.013386448943093</v>
+        <v>1.042576701458593</v>
       </c>
       <c r="E10">
-        <v>0.98952159281503</v>
+        <v>1.053130307153263</v>
       </c>
       <c r="F10">
-        <v>0.9939739497292089</v>
+        <v>1.060065881721935</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040486830175128</v>
+        <v>1.040217329108679</v>
       </c>
       <c r="J10">
-        <v>1.023266142905364</v>
+        <v>1.048323481143437</v>
       </c>
       <c r="K10">
-        <v>1.027518141321151</v>
+        <v>1.045998965655584</v>
       </c>
       <c r="L10">
-        <v>1.004082651002304</v>
+        <v>1.056515797289398</v>
       </c>
       <c r="M10">
-        <v>1.008452865492164</v>
+        <v>1.063427643272583</v>
       </c>
       <c r="N10">
-        <v>1.024719298198557</v>
+        <v>1.049812220731045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9905321986714388</v>
+        <v>1.041275391949081</v>
       </c>
       <c r="D11">
-        <v>1.010272855648885</v>
+        <v>1.042017259125627</v>
       </c>
       <c r="E11">
-        <v>0.984797081060552</v>
+        <v>1.0522221129009</v>
       </c>
       <c r="F11">
-        <v>0.9889086127485057</v>
+        <v>1.059093732334665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039036014936938</v>
+        <v>1.040008863219521</v>
       </c>
       <c r="J11">
-        <v>1.020304223300284</v>
+        <v>1.047798967711719</v>
       </c>
       <c r="K11">
-        <v>1.025003606884506</v>
+        <v>1.04556219810629</v>
       </c>
       <c r="L11">
-        <v>1.000011512337935</v>
+        <v>1.055730102108138</v>
       </c>
       <c r="M11">
-        <v>1.004042772052913</v>
+        <v>1.06257728315953</v>
       </c>
       <c r="N11">
-        <v>1.0217531723279</v>
+        <v>1.049286962430091</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9889045400133445</v>
+        <v>1.040993901827502</v>
       </c>
       <c r="D12">
-        <v>1.009099292701847</v>
+        <v>1.041809360742421</v>
       </c>
       <c r="E12">
-        <v>0.9830155447582728</v>
+        <v>1.05188479330139</v>
       </c>
       <c r="F12">
-        <v>0.9869984083560739</v>
+        <v>1.058732666712874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038486974583745</v>
+        <v>1.039931161302797</v>
       </c>
       <c r="J12">
-        <v>1.019186017604241</v>
+        <v>1.047603925391607</v>
       </c>
       <c r="K12">
-        <v>1.024054216554867</v>
+        <v>1.045399747440971</v>
       </c>
       <c r="L12">
-        <v>0.9984755381516337</v>
+        <v>1.055438188037018</v>
       </c>
       <c r="M12">
-        <v>1.002379010589892</v>
+        <v>1.062261363128128</v>
       </c>
       <c r="N12">
-        <v>1.020633378651509</v>
+        <v>1.049091643127513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9892548446920343</v>
+        <v>1.041054287806758</v>
       </c>
       <c r="D13">
-        <v>1.009351815842242</v>
+        <v>1.041853960037779</v>
       </c>
       <c r="E13">
-        <v>0.983398930453692</v>
+        <v>1.05195714847189</v>
       </c>
       <c r="F13">
-        <v>0.9874094902819204</v>
+        <v>1.058810115048641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038605214737213</v>
+        <v>1.03994784078396</v>
       </c>
       <c r="J13">
-        <v>1.019426711947358</v>
+        <v>1.047645772370754</v>
       </c>
       <c r="K13">
-        <v>1.024258576711368</v>
+        <v>1.045434603441255</v>
       </c>
       <c r="L13">
-        <v>0.9988061155084758</v>
+        <v>1.055500807908364</v>
       </c>
       <c r="M13">
-        <v>1.002737086414764</v>
+        <v>1.062329131752709</v>
       </c>
       <c r="N13">
-        <v>1.020874414808202</v>
+        <v>1.04913354953417</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9903981789177576</v>
+        <v>1.041252126315333</v>
       </c>
       <c r="D14">
-        <v>1.010176202892656</v>
+        <v>1.042000076156422</v>
       </c>
       <c r="E14">
-        <v>0.9846503745465977</v>
+        <v>1.052194229487904</v>
       </c>
       <c r="F14">
-        <v>0.9887513137265465</v>
+        <v>1.059063885870584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038990841632769</v>
+        <v>1.040002445833954</v>
       </c>
       <c r="J14">
-        <v>1.020212166807483</v>
+        <v>1.047782849840976</v>
       </c>
       <c r="K14">
-        <v>1.024925449718346</v>
+        <v>1.045548774291328</v>
       </c>
       <c r="L14">
-        <v>0.9998850438867783</v>
+        <v>1.055705973887768</v>
       </c>
       <c r="M14">
-        <v>1.003905779961798</v>
+        <v>1.062551170325203</v>
       </c>
       <c r="N14">
-        <v>1.02166098510432</v>
+        <v>1.049270821670124</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9910992419288567</v>
+        <v>1.0413740054</v>
       </c>
       <c r="D15">
-        <v>1.010681842550899</v>
+        <v>1.042090090291463</v>
       </c>
       <c r="E15">
-        <v>0.9854178366827511</v>
+        <v>1.052340306008705</v>
       </c>
       <c r="F15">
-        <v>0.9895741820639677</v>
+        <v>1.059220246816607</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039227076362038</v>
+        <v>1.040036054221947</v>
       </c>
       <c r="J15">
-        <v>1.020693686988042</v>
+        <v>1.047867279301499</v>
       </c>
       <c r="K15">
-        <v>1.025334263352619</v>
+        <v>1.04561909009771</v>
       </c>
       <c r="L15">
-        <v>1.000546602102937</v>
+        <v>1.055832373782651</v>
       </c>
       <c r="M15">
-        <v>1.004622391358811</v>
+        <v>1.062687967761451</v>
       </c>
       <c r="N15">
-        <v>1.022143189098768</v>
+        <v>1.049355371030164</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9951294643306866</v>
+        <v>1.042083155663737</v>
       </c>
       <c r="D16">
-        <v>1.013590762128089</v>
+        <v>1.042613816310864</v>
       </c>
       <c r="E16">
-        <v>0.9898315215857348</v>
+        <v>1.053190584630412</v>
       </c>
       <c r="F16">
-        <v>0.9943062168916886</v>
+        <v>1.060130405075681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040581727363503</v>
+        <v>1.040231126698994</v>
       </c>
       <c r="J16">
-        <v>1.023460256131152</v>
+        <v>1.048358261351549</v>
       </c>
       <c r="K16">
-        <v>1.027682921481869</v>
+        <v>1.046027922284708</v>
       </c>
       <c r="L16">
-        <v>1.004349604961409</v>
+        <v>1.056567931408603</v>
       </c>
       <c r="M16">
-        <v>1.008742058458354</v>
+        <v>1.063484070890263</v>
       </c>
       <c r="N16">
-        <v>1.02491368708739</v>
+        <v>1.049847050331042</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9976146913830184</v>
+        <v>1.042527778620824</v>
       </c>
       <c r="D17">
-        <v>1.015386318506311</v>
+        <v>1.042942164710765</v>
       </c>
       <c r="E17">
-        <v>0.9925548529652563</v>
+        <v>1.053723989438937</v>
       </c>
       <c r="F17">
-        <v>0.9972257310513813</v>
+        <v>1.060701388506936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041414043339812</v>
+        <v>1.040353012907737</v>
       </c>
       <c r="J17">
-        <v>1.02516484309688</v>
+        <v>1.048665860518172</v>
       </c>
       <c r="K17">
-        <v>1.029129842966161</v>
+        <v>1.046283988643821</v>
       </c>
       <c r="L17">
-        <v>1.0066946941361</v>
+        <v>1.057029203077814</v>
       </c>
       <c r="M17">
-        <v>1.011282578736348</v>
+        <v>1.063983345367746</v>
       </c>
       <c r="N17">
-        <v>1.026620694762128</v>
+        <v>1.050155086323763</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9990493992796108</v>
+        <v>1.042787045380509</v>
       </c>
       <c r="D18">
-        <v>1.016423487786798</v>
+        <v>1.043133623423709</v>
       </c>
       <c r="E18">
-        <v>0.9941276490459351</v>
+        <v>1.054035133866791</v>
       </c>
       <c r="F18">
-        <v>0.9989117435311243</v>
+        <v>1.061034458384277</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041893427794286</v>
+        <v>1.040423935158002</v>
       </c>
       <c r="J18">
-        <v>1.026148367329942</v>
+        <v>1.048845141130115</v>
       </c>
       <c r="K18">
-        <v>1.029964626899993</v>
+        <v>1.046433210050985</v>
       </c>
       <c r="L18">
-        <v>1.00804852269507</v>
+        <v>1.057298211450857</v>
       </c>
       <c r="M18">
-        <v>1.012749288176429</v>
+        <v>1.06427452892241</v>
       </c>
       <c r="N18">
-        <v>1.027605615712413</v>
+        <v>1.050334621534739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9995361232873449</v>
+        <v>1.042875436117435</v>
       </c>
       <c r="D19">
-        <v>1.016775446286415</v>
+        <v>1.043198895519417</v>
       </c>
       <c r="E19">
-        <v>0.994661330283951</v>
+        <v>1.054141229325654</v>
       </c>
       <c r="F19">
-        <v>0.9994838274146867</v>
+        <v>1.0611480309618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042055869313427</v>
+        <v>1.040448088672748</v>
       </c>
       <c r="J19">
-        <v>1.026481936989052</v>
+        <v>1.048906248032538</v>
       </c>
       <c r="K19">
-        <v>1.030247737451234</v>
+        <v>1.046484067360554</v>
       </c>
       <c r="L19">
-        <v>1.008507814786335</v>
+        <v>1.057389929071813</v>
       </c>
       <c r="M19">
-        <v>1.013246885316422</v>
+        <v>1.064373809203272</v>
       </c>
       <c r="N19">
-        <v>1.0279396590787</v>
+        <v>1.050395815215972</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973496014946429</v>
+        <v>1.042480082486382</v>
       </c>
       <c r="D20">
-        <v>1.015194729660125</v>
+        <v>1.042906942387696</v>
       </c>
       <c r="E20">
-        <v>0.9922643006518899</v>
+        <v>1.053666758274075</v>
       </c>
       <c r="F20">
-        <v>0.9969142568368976</v>
+        <v>1.06064012484385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041325377858038</v>
+        <v>1.040339953457406</v>
       </c>
       <c r="J20">
-        <v>1.024983075263443</v>
+        <v>1.048632872197119</v>
       </c>
       <c r="K20">
-        <v>1.02897555834214</v>
+        <v>1.046256529404693</v>
       </c>
       <c r="L20">
-        <v>1.006444550656408</v>
+        <v>1.056979717527527</v>
       </c>
       <c r="M20">
-        <v>1.011011583200669</v>
+        <v>1.063929781568285</v>
       </c>
       <c r="N20">
-        <v>1.026438668797519</v>
+        <v>1.05012205115551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9900622036319716</v>
+        <v>1.041193871090958</v>
       </c>
       <c r="D21">
-        <v>1.009933921176401</v>
+        <v>1.041957051275459</v>
       </c>
       <c r="E21">
-        <v>0.9842826080638498</v>
+        <v>1.052124414403052</v>
       </c>
       <c r="F21">
-        <v>0.9883569913221283</v>
+        <v>1.058989155786703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038877569164905</v>
+        <v>1.039986373422195</v>
       </c>
       <c r="J21">
-        <v>1.019981377292475</v>
+        <v>1.047742489881107</v>
       </c>
       <c r="K21">
-        <v>1.024729505126537</v>
+        <v>1.045515159786363</v>
       </c>
       <c r="L21">
-        <v>0.9995679974884432</v>
+        <v>1.055645559634516</v>
       </c>
       <c r="M21">
-        <v>1.00356235316602</v>
+        <v>1.062485787143369</v>
       </c>
       <c r="N21">
-        <v>1.02142986784173</v>
+        <v>1.049230404394481</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.985334029417732</v>
+        <v>1.040384493195353</v>
       </c>
       <c r="D22">
-        <v>1.006527046582439</v>
+        <v>1.041359257702614</v>
       </c>
       <c r="E22">
-        <v>0.9791089047331295</v>
+        <v>1.051154819482308</v>
       </c>
       <c r="F22">
-        <v>0.9828093298808147</v>
+        <v>1.057951320238755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037279512943729</v>
+        <v>1.039762510397358</v>
       </c>
       <c r="J22">
-        <v>1.016731701064221</v>
+        <v>1.047181428354082</v>
       </c>
       <c r="K22">
-        <v>1.021970300925531</v>
+        <v>1.045047782460302</v>
       </c>
       <c r="L22">
-        <v>0.9951058978114146</v>
+        <v>1.054806303824465</v>
       </c>
       <c r="M22">
-        <v>0.9987292065339751</v>
+        <v>1.061577550612767</v>
       </c>
       <c r="N22">
-        <v>1.018175576700488</v>
+        <v>1.048668546095733</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9878550207206702</v>
+        <v>1.040813625533458</v>
       </c>
       <c r="D23">
-        <v>1.008342897456154</v>
+        <v>1.041676212726236</v>
       </c>
       <c r="E23">
-        <v>0.9818670290996724</v>
+        <v>1.051668808391941</v>
       </c>
       <c r="F23">
-        <v>0.9857668997662543</v>
+        <v>1.058501479552551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03813248071687</v>
+        <v>1.039881331867267</v>
       </c>
       <c r="J23">
-        <v>1.018464783533275</v>
+        <v>1.047478976006601</v>
       </c>
       <c r="K23">
-        <v>1.023441846489444</v>
+        <v>1.045295666771765</v>
       </c>
       <c r="L23">
-        <v>0.9974851033660126</v>
+        <v>1.055251250030561</v>
       </c>
       <c r="M23">
-        <v>1.00130620241882</v>
+        <v>1.062059057485951</v>
       </c>
       <c r="N23">
-        <v>1.019911120345436</v>
+        <v>1.048966516300048</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.997469430068606</v>
+        <v>1.04250163454539</v>
       </c>
       <c r="D24">
-        <v>1.015281331692674</v>
+        <v>1.042922858028608</v>
       </c>
       <c r="E24">
-        <v>0.9923956370341331</v>
+        <v>1.053692618516088</v>
       </c>
       <c r="F24">
-        <v>0.9970550506643593</v>
+        <v>1.06066780717816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041365460753085</v>
+        <v>1.040345854991851</v>
       </c>
       <c r="J24">
-        <v>1.025065241403227</v>
+        <v>1.048647778621615</v>
       </c>
       <c r="K24">
-        <v>1.029045301222306</v>
+        <v>1.046268937478222</v>
       </c>
       <c r="L24">
-        <v>1.006557622931848</v>
+        <v>1.057002078051427</v>
       </c>
       <c r="M24">
-        <v>1.011134081044995</v>
+        <v>1.063953984850242</v>
       </c>
       <c r="N24">
-        <v>1.026520951622646</v>
+        <v>1.050136978748839</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008047385232473</v>
+        <v>1.044457569179344</v>
       </c>
       <c r="D25">
-        <v>1.022937971418857</v>
+        <v>1.044367116971516</v>
       </c>
       <c r="E25">
-        <v>1.004003985096168</v>
+        <v>1.056041874756619</v>
       </c>
       <c r="F25">
-        <v>1.009497632401555</v>
+        <v>1.063182702050395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044879834346237</v>
+        <v>1.040878166637603</v>
       </c>
       <c r="J25">
-        <v>1.032306925028315</v>
+        <v>1.049998748801244</v>
       </c>
       <c r="K25">
-        <v>1.035190342560671</v>
+        <v>1.047392963427489</v>
       </c>
       <c r="L25">
-        <v>1.016540460717194</v>
+        <v>1.059032119487511</v>
       </c>
       <c r="M25">
-        <v>1.021950277514653</v>
+        <v>1.066151590884623</v>
       </c>
       <c r="N25">
-        <v>1.033772919269114</v>
+        <v>1.051489867461082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046015360399743</v>
+        <v>1.016073140619489</v>
       </c>
       <c r="D2">
-        <v>1.045517149817485</v>
+        <v>1.028761905340492</v>
       </c>
       <c r="E2">
-        <v>1.057916378128792</v>
+        <v>1.012835084276016</v>
       </c>
       <c r="F2">
-        <v>1.065189534509206</v>
+        <v>1.018961211736078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041297323242586</v>
+        <v>1.047510445789202</v>
       </c>
       <c r="J2">
-        <v>1.051072011530409</v>
+        <v>1.037783509291178</v>
       </c>
       <c r="K2">
-        <v>1.048285168081746</v>
+        <v>1.03983457188089</v>
       </c>
       <c r="L2">
-        <v>1.060650038855828</v>
+        <v>1.024118455769772</v>
       </c>
       <c r="M2">
-        <v>1.067903444620381</v>
+        <v>1.030162558829453</v>
       </c>
       <c r="N2">
-        <v>1.052564654346427</v>
+        <v>1.039257280909823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047145190270167</v>
+        <v>1.021686168772278</v>
       </c>
       <c r="D3">
-        <v>1.04635108905697</v>
+        <v>1.032841907993912</v>
       </c>
       <c r="E3">
-        <v>1.059277940353205</v>
+        <v>1.019026665282561</v>
       </c>
       <c r="F3">
-        <v>1.066647310122513</v>
+        <v>1.0255951462936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041598539744753</v>
+        <v>1.049328682256518</v>
       </c>
       <c r="J3">
-        <v>1.051848848591435</v>
+        <v>1.041602611696688</v>
       </c>
       <c r="K3">
-        <v>1.048930505235321</v>
+        <v>1.043071131858557</v>
       </c>
       <c r="L3">
-        <v>1.061824142150128</v>
+        <v>1.029421749596632</v>
       </c>
       <c r="M3">
-        <v>1.069174965131756</v>
+        <v>1.035910680555375</v>
       </c>
       <c r="N3">
-        <v>1.053342594605184</v>
+        <v>1.043081806878787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047875695047077</v>
+        <v>1.025226069602384</v>
       </c>
       <c r="D4">
-        <v>1.04689020647245</v>
+        <v>1.035417696250974</v>
       </c>
       <c r="E4">
-        <v>1.060159221471009</v>
+        <v>1.02293902532084</v>
       </c>
       <c r="F4">
-        <v>1.067590910002192</v>
+        <v>1.029786569074109</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04179200307733</v>
+        <v>1.05046512769557</v>
       </c>
       <c r="J4">
-        <v>1.052350391061534</v>
+        <v>1.044005784577885</v>
       </c>
       <c r="K4">
-        <v>1.049346939363912</v>
+        <v>1.045106656992169</v>
       </c>
       <c r="L4">
-        <v>1.062583587038346</v>
+        <v>1.032768260408769</v>
       </c>
       <c r="M4">
-        <v>1.069997524829581</v>
+        <v>1.039538311718606</v>
       </c>
       <c r="N4">
-        <v>1.053844849323119</v>
+        <v>1.045488392541123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048182664422545</v>
+        <v>1.026693167551293</v>
       </c>
       <c r="D5">
-        <v>1.047116733025788</v>
+        <v>1.036485802828861</v>
       </c>
       <c r="E5">
-        <v>1.060529777421038</v>
+        <v>1.024562379889453</v>
       </c>
       <c r="F5">
-        <v>1.067987679900764</v>
+        <v>1.031525612977749</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041872989818786</v>
+        <v>1.050933626083779</v>
       </c>
       <c r="J5">
-        <v>1.052560971752177</v>
+        <v>1.045000445316924</v>
       </c>
       <c r="K5">
-        <v>1.049521735587783</v>
+        <v>1.045948874357066</v>
       </c>
       <c r="L5">
-        <v>1.062902793931102</v>
+        <v>1.034155726251399</v>
       </c>
       <c r="M5">
-        <v>1.070343284330038</v>
+        <v>1.041042430307891</v>
       </c>
       <c r="N5">
-        <v>1.054055729062496</v>
+        <v>1.0464844658125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048234198076829</v>
+        <v>1.026938290935216</v>
       </c>
       <c r="D6">
-        <v>1.047154760904196</v>
+        <v>1.036664294842453</v>
       </c>
       <c r="E6">
-        <v>1.060591999324335</v>
+        <v>1.024833723974372</v>
       </c>
       <c r="F6">
-        <v>1.068054304136062</v>
+        <v>1.031816288744508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041886567616127</v>
+        <v>1.051011755032775</v>
       </c>
       <c r="J6">
-        <v>1.052596313506763</v>
+        <v>1.045166554772849</v>
       </c>
       <c r="K6">
-        <v>1.049551068674385</v>
+        <v>1.046089508912352</v>
       </c>
       <c r="L6">
-        <v>1.062956386520299</v>
+        <v>1.03438757652118</v>
       </c>
       <c r="M6">
-        <v>1.07040133634556</v>
+        <v>1.041293779491736</v>
       </c>
       <c r="N6">
-        <v>1.054091121006427</v>
+        <v>1.046650811162906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047879797314457</v>
+        <v>1.025245754611977</v>
       </c>
       <c r="D7">
-        <v>1.046893233795888</v>
+        <v>1.035432025520838</v>
       </c>
       <c r="E7">
-        <v>1.060164172596788</v>
+        <v>1.022960799352619</v>
       </c>
       <c r="F7">
-        <v>1.067596211340247</v>
+        <v>1.029809895240365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041793086582176</v>
+        <v>1.050471423770372</v>
       </c>
       <c r="J7">
-        <v>1.052353205901795</v>
+        <v>1.044019135874242</v>
       </c>
       <c r="K7">
-        <v>1.049349276070142</v>
+        <v>1.045117963159056</v>
       </c>
       <c r="L7">
-        <v>1.062587852543267</v>
+        <v>1.032786874830829</v>
       </c>
       <c r="M7">
-        <v>1.070002145056352</v>
+        <v>1.039558490775328</v>
       </c>
       <c r="N7">
-        <v>1.053847668160776</v>
+        <v>1.045501762797852</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046397310942408</v>
+        <v>1.017989767473273</v>
       </c>
       <c r="D8">
-        <v>1.045799086756008</v>
+        <v>1.030154453937622</v>
       </c>
       <c r="E8">
-        <v>1.058376472744236</v>
+        <v>1.01494771175448</v>
       </c>
       <c r="F8">
-        <v>1.065682132138577</v>
+        <v>1.021224874030469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041399419992913</v>
+        <v>1.048133431437483</v>
       </c>
       <c r="J8">
-        <v>1.051334780450333</v>
+        <v>1.039088690489234</v>
       </c>
       <c r="K8">
-        <v>1.048503499740848</v>
+        <v>1.0409408868137</v>
       </c>
       <c r="L8">
-        <v>1.061046891977262</v>
+        <v>1.02592894308354</v>
       </c>
       <c r="M8">
-        <v>1.068333204001855</v>
+        <v>1.032124815757472</v>
       </c>
       <c r="N8">
-        <v>1.052827796428358</v>
+        <v>1.040564315614867</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043780528876924</v>
+        <v>1.004451018769229</v>
       </c>
       <c r="D9">
-        <v>1.043867226315437</v>
+        <v>1.020332255031356</v>
       </c>
       <c r="E9">
-        <v>1.055228156001323</v>
+        <v>1.00005380750681</v>
       </c>
       <c r="F9">
-        <v>1.062311585217766</v>
+        <v>1.005263943826685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040694651362952</v>
+        <v>1.043690564078828</v>
       </c>
       <c r="J9">
-        <v>1.049531533768213</v>
+        <v>1.02984757327013</v>
       </c>
       <c r="K9">
-        <v>1.047004351974475</v>
+        <v>1.033103849073813</v>
       </c>
       <c r="L9">
-        <v>1.058329259004191</v>
+        <v>1.013146011781818</v>
       </c>
       <c r="M9">
-        <v>1.065390654363388</v>
+        <v>1.018272190655789</v>
       </c>
       <c r="N9">
-        <v>1.051021988929114</v>
+        <v>1.031310074949341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042032898884194</v>
+        <v>0.9948465568946208</v>
       </c>
       <c r="D10">
-        <v>1.042576701458593</v>
+        <v>1.013386448943093</v>
       </c>
       <c r="E10">
-        <v>1.053130307153263</v>
+        <v>0.9895215928150306</v>
       </c>
       <c r="F10">
-        <v>1.060065881721935</v>
+        <v>0.9939739497292093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040217329108679</v>
+        <v>1.040486830175128</v>
       </c>
       <c r="J10">
-        <v>1.048323481143437</v>
+        <v>1.023266142905364</v>
       </c>
       <c r="K10">
-        <v>1.045998965655584</v>
+        <v>1.027518141321151</v>
       </c>
       <c r="L10">
-        <v>1.056515797289398</v>
+        <v>1.004082651002304</v>
       </c>
       <c r="M10">
-        <v>1.063427643272583</v>
+        <v>1.008452865492165</v>
       </c>
       <c r="N10">
-        <v>1.049812220731045</v>
+        <v>1.024719298198557</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041275391949081</v>
+        <v>0.9905321986714394</v>
       </c>
       <c r="D11">
-        <v>1.042017259125627</v>
+        <v>1.010272855648885</v>
       </c>
       <c r="E11">
-        <v>1.0522221129009</v>
+        <v>0.9847970810605524</v>
       </c>
       <c r="F11">
-        <v>1.059093732334665</v>
+        <v>0.9889086127485064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040008863219521</v>
+        <v>1.039036014936939</v>
       </c>
       <c r="J11">
-        <v>1.047798967711719</v>
+        <v>1.020304223300284</v>
       </c>
       <c r="K11">
-        <v>1.04556219810629</v>
+        <v>1.025003606884507</v>
       </c>
       <c r="L11">
-        <v>1.055730102108138</v>
+        <v>1.000011512337935</v>
       </c>
       <c r="M11">
-        <v>1.06257728315953</v>
+        <v>1.004042772052914</v>
       </c>
       <c r="N11">
-        <v>1.049286962430091</v>
+        <v>1.021753172327901</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040993901827502</v>
+        <v>0.9889045400133444</v>
       </c>
       <c r="D12">
-        <v>1.041809360742421</v>
+        <v>1.009099292701846</v>
       </c>
       <c r="E12">
-        <v>1.05188479330139</v>
+        <v>0.9830155447582722</v>
       </c>
       <c r="F12">
-        <v>1.058732666712874</v>
+        <v>0.9869984083560733</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039931161302797</v>
+        <v>1.038486974583745</v>
       </c>
       <c r="J12">
-        <v>1.047603925391607</v>
+        <v>1.019186017604241</v>
       </c>
       <c r="K12">
-        <v>1.045399747440971</v>
+        <v>1.024054216554867</v>
       </c>
       <c r="L12">
-        <v>1.055438188037018</v>
+        <v>0.9984755381516334</v>
       </c>
       <c r="M12">
-        <v>1.062261363128128</v>
+        <v>1.002379010589891</v>
       </c>
       <c r="N12">
-        <v>1.049091643127513</v>
+        <v>1.020633378651509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041054287806758</v>
+        <v>0.989254844692035</v>
       </c>
       <c r="D13">
-        <v>1.041853960037779</v>
+        <v>1.009351815842242</v>
       </c>
       <c r="E13">
-        <v>1.05195714847189</v>
+        <v>0.9833989304536922</v>
       </c>
       <c r="F13">
-        <v>1.058810115048641</v>
+        <v>0.9874094902819207</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03994784078396</v>
+        <v>1.038605214737214</v>
       </c>
       <c r="J13">
-        <v>1.047645772370754</v>
+        <v>1.019426711947359</v>
       </c>
       <c r="K13">
-        <v>1.045434603441255</v>
+        <v>1.024258576711369</v>
       </c>
       <c r="L13">
-        <v>1.055500807908364</v>
+        <v>0.998806115508476</v>
       </c>
       <c r="M13">
-        <v>1.062329131752709</v>
+        <v>1.002737086414765</v>
       </c>
       <c r="N13">
-        <v>1.04913354953417</v>
+        <v>1.020874414808202</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041252126315333</v>
+        <v>0.9903981789177594</v>
       </c>
       <c r="D14">
-        <v>1.042000076156422</v>
+        <v>1.010176202892658</v>
       </c>
       <c r="E14">
-        <v>1.052194229487904</v>
+        <v>0.9846503745465978</v>
       </c>
       <c r="F14">
-        <v>1.059063885870584</v>
+        <v>0.9887513137265468</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040002445833954</v>
+        <v>1.03899084163277</v>
       </c>
       <c r="J14">
-        <v>1.047782849840976</v>
+        <v>1.020212166807485</v>
       </c>
       <c r="K14">
-        <v>1.045548774291328</v>
+        <v>1.024925449718348</v>
       </c>
       <c r="L14">
-        <v>1.055705973887768</v>
+        <v>0.9998850438867786</v>
       </c>
       <c r="M14">
-        <v>1.062551170325203</v>
+        <v>1.003905779961798</v>
       </c>
       <c r="N14">
-        <v>1.049270821670124</v>
+        <v>1.021660985104322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0413740054</v>
+        <v>0.9910992419288569</v>
       </c>
       <c r="D15">
-        <v>1.042090090291463</v>
+        <v>1.010681842550899</v>
       </c>
       <c r="E15">
-        <v>1.052340306008705</v>
+        <v>0.9854178366827514</v>
       </c>
       <c r="F15">
-        <v>1.059220246816607</v>
+        <v>0.9895741820639682</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040036054221947</v>
+        <v>1.039227076362038</v>
       </c>
       <c r="J15">
-        <v>1.047867279301499</v>
+        <v>1.020693686988042</v>
       </c>
       <c r="K15">
-        <v>1.04561909009771</v>
+        <v>1.025334263352619</v>
       </c>
       <c r="L15">
-        <v>1.055832373782651</v>
+        <v>1.000546602102938</v>
       </c>
       <c r="M15">
-        <v>1.062687967761451</v>
+        <v>1.004622391358811</v>
       </c>
       <c r="N15">
-        <v>1.049355371030164</v>
+        <v>1.022143189098768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042083155663737</v>
+        <v>0.9951294643306876</v>
       </c>
       <c r="D16">
-        <v>1.042613816310864</v>
+        <v>1.01359076212809</v>
       </c>
       <c r="E16">
-        <v>1.053190584630412</v>
+        <v>0.9898315215857366</v>
       </c>
       <c r="F16">
-        <v>1.060130405075681</v>
+        <v>0.9943062168916905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040231126698994</v>
+        <v>1.040581727363503</v>
       </c>
       <c r="J16">
-        <v>1.048358261351549</v>
+        <v>1.023460256131153</v>
       </c>
       <c r="K16">
-        <v>1.046027922284708</v>
+        <v>1.02768292148187</v>
       </c>
       <c r="L16">
-        <v>1.056567931408603</v>
+        <v>1.004349604961411</v>
       </c>
       <c r="M16">
-        <v>1.063484070890263</v>
+        <v>1.008742058458356</v>
       </c>
       <c r="N16">
-        <v>1.049847050331042</v>
+        <v>1.024913687087391</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042527778620824</v>
+        <v>0.9976146913830175</v>
       </c>
       <c r="D17">
-        <v>1.042942164710765</v>
+        <v>1.01538631850631</v>
       </c>
       <c r="E17">
-        <v>1.053723989438937</v>
+        <v>0.9925548529652561</v>
       </c>
       <c r="F17">
-        <v>1.060701388506936</v>
+        <v>0.9972257310513811</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040353012907737</v>
+        <v>1.041414043339811</v>
       </c>
       <c r="J17">
-        <v>1.048665860518172</v>
+        <v>1.025164843096878</v>
       </c>
       <c r="K17">
-        <v>1.046283988643821</v>
+        <v>1.02912984296616</v>
       </c>
       <c r="L17">
-        <v>1.057029203077814</v>
+        <v>1.0066946941361</v>
       </c>
       <c r="M17">
-        <v>1.063983345367746</v>
+        <v>1.011282578736348</v>
       </c>
       <c r="N17">
-        <v>1.050155086323763</v>
+        <v>1.026620694762127</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042787045380509</v>
+        <v>0.9990493992796112</v>
       </c>
       <c r="D18">
-        <v>1.043133623423709</v>
+        <v>1.016423487786798</v>
       </c>
       <c r="E18">
-        <v>1.054035133866791</v>
+        <v>0.9941276490459351</v>
       </c>
       <c r="F18">
-        <v>1.061034458384277</v>
+        <v>0.9989117435311244</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040423935158002</v>
+        <v>1.041893427794286</v>
       </c>
       <c r="J18">
-        <v>1.048845141130115</v>
+        <v>1.026148367329943</v>
       </c>
       <c r="K18">
-        <v>1.046433210050985</v>
+        <v>1.029964626899994</v>
       </c>
       <c r="L18">
-        <v>1.057298211450857</v>
+        <v>1.00804852269507</v>
       </c>
       <c r="M18">
-        <v>1.06427452892241</v>
+        <v>1.012749288176429</v>
       </c>
       <c r="N18">
-        <v>1.050334621534739</v>
+        <v>1.027605615712414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042875436117435</v>
+        <v>0.9995361232873439</v>
       </c>
       <c r="D19">
-        <v>1.043198895519417</v>
+        <v>1.016775446286414</v>
       </c>
       <c r="E19">
-        <v>1.054141229325654</v>
+        <v>0.994661330283951</v>
       </c>
       <c r="F19">
-        <v>1.0611480309618</v>
+        <v>0.9994838274146866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040448088672748</v>
+        <v>1.042055869313427</v>
       </c>
       <c r="J19">
-        <v>1.048906248032538</v>
+        <v>1.026481936989051</v>
       </c>
       <c r="K19">
-        <v>1.046484067360554</v>
+        <v>1.030247737451233</v>
       </c>
       <c r="L19">
-        <v>1.057389929071813</v>
+        <v>1.008507814786335</v>
       </c>
       <c r="M19">
-        <v>1.064373809203272</v>
+        <v>1.013246885316422</v>
       </c>
       <c r="N19">
-        <v>1.050395815215972</v>
+        <v>1.027939659078699</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042480082486382</v>
+        <v>0.9973496014946426</v>
       </c>
       <c r="D20">
-        <v>1.042906942387696</v>
+        <v>1.015194729660125</v>
       </c>
       <c r="E20">
-        <v>1.053666758274075</v>
+        <v>0.9922643006518904</v>
       </c>
       <c r="F20">
-        <v>1.06064012484385</v>
+        <v>0.9969142568368982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040339953457406</v>
+        <v>1.041325377858038</v>
       </c>
       <c r="J20">
-        <v>1.048632872197119</v>
+        <v>1.024983075263443</v>
       </c>
       <c r="K20">
-        <v>1.046256529404693</v>
+        <v>1.028975558342139</v>
       </c>
       <c r="L20">
-        <v>1.056979717527527</v>
+        <v>1.006444550656409</v>
       </c>
       <c r="M20">
-        <v>1.063929781568285</v>
+        <v>1.011011583200669</v>
       </c>
       <c r="N20">
-        <v>1.05012205115551</v>
+        <v>1.026438668797519</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041193871090958</v>
+        <v>0.9900622036319722</v>
       </c>
       <c r="D21">
-        <v>1.041957051275459</v>
+        <v>1.009933921176402</v>
       </c>
       <c r="E21">
-        <v>1.052124414403052</v>
+        <v>0.9842826080638505</v>
       </c>
       <c r="F21">
-        <v>1.058989155786703</v>
+        <v>0.9883569913221286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039986373422195</v>
+        <v>1.038877569164905</v>
       </c>
       <c r="J21">
-        <v>1.047742489881107</v>
+        <v>1.019981377292476</v>
       </c>
       <c r="K21">
-        <v>1.045515159786363</v>
+        <v>1.024729505126538</v>
       </c>
       <c r="L21">
-        <v>1.055645559634516</v>
+        <v>0.9995679974884435</v>
       </c>
       <c r="M21">
-        <v>1.062485787143369</v>
+        <v>1.00356235316602</v>
       </c>
       <c r="N21">
-        <v>1.049230404394481</v>
+        <v>1.02142986784173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040384493195353</v>
+        <v>0.985334029417731</v>
       </c>
       <c r="D22">
-        <v>1.041359257702614</v>
+        <v>1.006527046582438</v>
       </c>
       <c r="E22">
-        <v>1.051154819482308</v>
+        <v>0.9791089047331301</v>
       </c>
       <c r="F22">
-        <v>1.057951320238755</v>
+        <v>0.9828093298808153</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039762510397358</v>
+        <v>1.037279512943728</v>
       </c>
       <c r="J22">
-        <v>1.047181428354082</v>
+        <v>1.01673170106422</v>
       </c>
       <c r="K22">
-        <v>1.045047782460302</v>
+        <v>1.021970300925531</v>
       </c>
       <c r="L22">
-        <v>1.054806303824465</v>
+        <v>0.995105897811415</v>
       </c>
       <c r="M22">
-        <v>1.061577550612767</v>
+        <v>0.9987292065339755</v>
       </c>
       <c r="N22">
-        <v>1.048668546095733</v>
+        <v>1.018175576700487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040813625533458</v>
+        <v>0.98785502072067</v>
       </c>
       <c r="D23">
-        <v>1.041676212726236</v>
+        <v>1.008342897456153</v>
       </c>
       <c r="E23">
-        <v>1.051668808391941</v>
+        <v>0.9818670290996721</v>
       </c>
       <c r="F23">
-        <v>1.058501479552551</v>
+        <v>0.9857668997662538</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039881331867267</v>
+        <v>1.03813248071687</v>
       </c>
       <c r="J23">
-        <v>1.047478976006601</v>
+        <v>1.018464783533275</v>
       </c>
       <c r="K23">
-        <v>1.045295666771765</v>
+        <v>1.023441846489444</v>
       </c>
       <c r="L23">
-        <v>1.055251250030561</v>
+        <v>0.9974851033660121</v>
       </c>
       <c r="M23">
-        <v>1.062059057485951</v>
+        <v>1.00130620241882</v>
       </c>
       <c r="N23">
-        <v>1.048966516300048</v>
+        <v>1.019911120345435</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04250163454539</v>
+        <v>0.9974694300686066</v>
       </c>
       <c r="D24">
-        <v>1.042922858028608</v>
+        <v>1.015281331692675</v>
       </c>
       <c r="E24">
-        <v>1.053692618516088</v>
+        <v>0.9923956370341335</v>
       </c>
       <c r="F24">
-        <v>1.06066780717816</v>
+        <v>0.9970550506643595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040345854991851</v>
+        <v>1.041365460753086</v>
       </c>
       <c r="J24">
-        <v>1.048647778621615</v>
+        <v>1.025065241403228</v>
       </c>
       <c r="K24">
-        <v>1.046268937478222</v>
+        <v>1.029045301222306</v>
       </c>
       <c r="L24">
-        <v>1.057002078051427</v>
+        <v>1.006557622931848</v>
       </c>
       <c r="M24">
-        <v>1.063953984850242</v>
+        <v>1.011134081044995</v>
       </c>
       <c r="N24">
-        <v>1.050136978748839</v>
+        <v>1.026520951622647</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044457569179344</v>
+        <v>1.008047385232473</v>
       </c>
       <c r="D25">
-        <v>1.044367116971516</v>
+        <v>1.022937971418857</v>
       </c>
       <c r="E25">
-        <v>1.056041874756619</v>
+        <v>1.004003985096169</v>
       </c>
       <c r="F25">
-        <v>1.063182702050395</v>
+        <v>1.009497632401556</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040878166637603</v>
+        <v>1.044879834346237</v>
       </c>
       <c r="J25">
-        <v>1.049998748801244</v>
+        <v>1.032306925028315</v>
       </c>
       <c r="K25">
-        <v>1.047392963427489</v>
+        <v>1.035190342560672</v>
       </c>
       <c r="L25">
-        <v>1.059032119487511</v>
+        <v>1.016540460717195</v>
       </c>
       <c r="M25">
-        <v>1.066151590884623</v>
+        <v>1.021950277514654</v>
       </c>
       <c r="N25">
-        <v>1.051489867461082</v>
+        <v>1.033772919269115</v>
       </c>
     </row>
   </sheetData>
